--- a/CodeSystem-mtnlotus-concepts.xlsx
+++ b/CodeSystem-mtnlotus-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-mtnlotus-concepts.xlsx
+++ b/CodeSystem-mtnlotus-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-mtnlotus-concepts.xlsx
+++ b/CodeSystem-mtnlotus-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
